--- a/TestcasesDesign.xlsx
+++ b/TestcasesDesign.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HaiAnh\Relax\NABTest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HaiAnh\Relax\NABTest\OpenWeatherMap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E04A0C3B-CD46-4985-87DE-268FFF5AB92E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92435662-0776-447C-9498-F64B145FAF9E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AF5794D4-98E5-4DCA-9181-6DD49CEAA8AD}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="67">
   <si>
     <t>TestcaseID</t>
   </si>
@@ -104,9 +104,6 @@
     <t>"</t>
   </si>
   <si>
-    <t>Search with valid city and special characters</t>
-  </si>
-  <si>
     <t>london@#</t>
   </si>
   <si>
@@ -234,6 +231,12 @@
   </si>
   <si>
     <t>abc,rr</t>
+  </si>
+  <si>
+    <t>abc,gb</t>
+  </si>
+  <si>
+    <t>Search with special characters</t>
   </si>
 </sst>
 </file>
@@ -322,15 +325,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>361371</xdr:colOff>
+      <xdr:colOff>370896</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>171139</xdr:rowOff>
+      <xdr:rowOff>180664</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -353,7 +356,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12963525" y="2638425"/>
+          <a:off x="12973050" y="2647950"/>
           <a:ext cx="4628571" cy="2485714"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -666,7 +669,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -707,7 +710,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>8</v>
@@ -716,7 +719,7 @@
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -730,16 +733,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -753,16 +756,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
         <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
@@ -776,7 +779,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
@@ -785,7 +788,7 @@
         <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
         <v>9</v>
@@ -799,16 +802,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
         <v>9</v>
@@ -822,7 +825,7 @@
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
@@ -831,7 +834,7 @@
         <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
@@ -842,19 +845,19 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
@@ -865,19 +868,19 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
         <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -888,19 +891,19 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
         <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F10" t="s">
         <v>9</v>
@@ -911,19 +914,19 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
         <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F11" t="s">
         <v>9</v>
@@ -934,39 +937,39 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
         <v>21</v>
       </c>
       <c r="D12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" t="s">
         <v>56</v>
       </c>
-      <c r="E12" t="s">
-        <v>57</v>
-      </c>
       <c r="F12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F13" t="s">
         <v>9</v>
@@ -977,19 +980,19 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F14" t="s">
         <v>9</v>
@@ -1000,22 +1003,22 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" t="s">
         <v>42</v>
       </c>
-      <c r="C15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" t="s">
-        <v>43</v>
-      </c>
       <c r="E15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" t="s">
         <v>30</v>
-      </c>
-      <c r="F15" t="s">
-        <v>31</v>
       </c>
       <c r="G15" t="s">
         <v>16</v>
@@ -1023,10 +1026,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C16" t="s">
         <v>21</v>
@@ -1035,10 +1038,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" t="s">
         <v>30</v>
-      </c>
-      <c r="F16" t="s">
-        <v>31</v>
       </c>
       <c r="G16" t="s">
         <v>16</v>
@@ -1046,22 +1049,22 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="E17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" t="s">
         <v>30</v>
-      </c>
-      <c r="F17" t="s">
-        <v>31</v>
       </c>
       <c r="G17" t="s">
         <v>16</v>
